--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>A sample to be used for analysis.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -1955,10 +1951,10 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>72</v>
@@ -1969,7 +1965,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1980,28 +1976,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2051,13 +2047,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2077,7 +2073,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2088,25 +2084,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2157,19 +2153,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2183,7 +2179,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2194,28 +2190,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2265,19 +2261,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2291,7 +2287,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2302,7 +2298,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2314,16 +2310,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2349,43 +2345,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2399,18 +2395,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2422,16 +2418,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2481,22 +2477,22 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
@@ -2507,11 +2503,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2530,16 +2526,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2589,7 +2585,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2604,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>72</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2638,13 +2634,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2683,17 +2679,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2705,7 +2701,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2719,10 +2715,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2732,7 +2728,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -2744,13 +2740,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2801,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2810,10 +2806,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2827,10 +2823,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
@@ -2852,13 +2848,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2909,7 +2905,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2918,10 +2914,10 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2935,11 +2931,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2952,25 +2948,25 @@
         <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -3019,7 +3015,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3031,10 +3027,10 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3065,16 +3061,16 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3125,7 +3121,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -3137,21 +3133,21 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3162,7 +3158,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3174,13 +3170,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3231,22 +3227,22 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -3257,11 +3253,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3280,16 +3276,16 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3327,19 +3323,19 @@
         <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3351,10 +3347,10 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -3365,7 +3361,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3376,31 +3372,31 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3425,57 +3421,57 @@
         <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3486,31 +3482,31 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -3535,57 +3531,57 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3596,31 +3592,31 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3633,7 +3629,7 @@
         <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>72</v>
@@ -3645,55 +3641,55 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3704,28 +3700,28 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3739,69 +3735,69 @@
         <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3812,25 +3808,25 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3881,33 +3877,33 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3918,28 +3914,28 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3989,33 +3985,33 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4023,28 +4019,28 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4095,33 +4091,33 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4132,28 +4128,28 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4179,57 +4175,57 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4240,28 +4236,28 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4287,55 +4283,55 @@
         <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4346,29 +4342,29 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4417,25 +4413,25 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4443,7 +4439,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4454,7 +4450,7 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -4466,13 +4462,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4523,22 +4519,22 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4549,11 +4545,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4572,16 +4568,16 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4619,19 +4615,19 @@
         <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4643,10 +4639,10 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4668,28 +4664,28 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4739,22 +4735,22 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4765,7 +4761,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4776,28 +4772,28 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4823,46 +4819,46 @@
         <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>72</v>
@@ -4873,7 +4869,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4884,28 +4880,28 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4955,22 +4951,22 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4981,7 +4977,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4992,7 +4988,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5004,13 +5000,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5061,22 +5057,22 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>72</v>
@@ -5087,11 +5083,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5110,16 +5106,16 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5157,19 +5153,19 @@
         <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AB32" t="s" s="2">
+      <c r="AE32" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5181,10 +5177,10 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -5195,7 +5191,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5206,31 +5202,31 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5255,57 +5251,57 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5316,31 +5312,31 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -5365,57 +5361,57 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5426,31 +5422,31 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>72</v>
@@ -5463,7 +5459,7 @@
         <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>72</v>
@@ -5475,11 +5471,11 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -5497,33 +5493,33 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5534,28 +5530,28 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5569,69 +5565,69 @@
         <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="T36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5642,25 +5638,25 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5711,33 +5707,33 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5748,28 +5744,28 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5819,33 +5815,33 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5856,28 +5852,28 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5927,22 +5923,22 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
@@ -5953,7 +5949,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5964,25 +5960,25 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6033,33 +6029,33 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6082,16 +6078,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6141,7 +6137,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6153,10 +6149,10 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -6167,7 +6163,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6190,16 +6186,16 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6249,7 +6245,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6261,21 +6257,21 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6283,10 +6279,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6298,13 +6294,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6355,33 +6351,33 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6392,7 +6388,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6404,13 +6400,13 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6461,22 +6457,22 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6487,11 +6483,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6510,16 +6506,16 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6569,7 +6565,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6581,10 +6577,10 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6595,11 +6591,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6612,25 +6608,25 @@
         <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6679,7 +6675,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6691,10 +6687,10 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6705,7 +6701,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6716,25 +6712,25 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6785,33 +6781,33 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6819,28 +6815,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6891,33 +6887,33 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6928,25 +6924,25 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6997,25 +6993,25 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7023,7 +7019,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7034,7 +7030,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7046,13 +7042,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7103,33 +7099,33 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7140,7 +7136,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7152,13 +7148,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7185,57 +7181,57 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7246,7 +7242,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -7258,16 +7254,16 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7293,57 +7289,57 @@
         <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7354,31 +7350,31 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7403,57 +7399,57 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7476,13 +7472,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7533,7 +7529,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7545,10 +7541,10 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7559,7 +7555,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7570,7 +7566,7 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -7582,13 +7578,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7639,22 +7635,22 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7665,11 +7661,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7688,16 +7684,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7747,7 +7743,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7759,10 +7755,10 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>72</v>
@@ -7773,11 +7769,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7790,25 +7786,25 @@
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7857,7 +7853,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7869,10 +7865,10 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7883,7 +7879,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7894,7 +7890,7 @@
         <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -7906,13 +7902,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7963,22 +7959,22 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7989,7 +7985,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8000,7 +7996,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8012,13 +8008,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8045,14 +8041,14 @@
         <v>72</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>72</v>
       </c>
@@ -8069,22 +8065,22 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -8095,7 +8091,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8118,13 +8114,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8175,7 +8171,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8187,21 +8183,21 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8212,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -8224,13 +8220,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8281,22 +8277,22 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>72</v>
@@ -8307,7 +8303,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8318,7 +8314,7 @@
         <v>73</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -8330,13 +8326,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8387,7 +8383,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8399,10 +8395,10 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>72</v>
@@ -8413,7 +8409,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8424,7 +8420,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -8436,13 +8432,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8493,22 +8489,22 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8519,11 +8515,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8542,16 +8538,16 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8601,7 +8597,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8613,10 +8609,10 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8627,11 +8623,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8644,25 +8640,25 @@
         <v>72</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M65" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -8711,7 +8707,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8723,10 +8719,10 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>
@@ -8737,7 +8733,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8757,16 +8753,16 @@
         <v>72</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8817,7 +8813,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8829,21 +8825,21 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8854,7 +8850,7 @@
         <v>73</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>72</v>
@@ -8866,13 +8862,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8923,22 +8919,22 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>72</v>
@@ -8949,7 +8945,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8960,7 +8956,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -8972,13 +8968,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9005,57 +9001,57 @@
         <v>72</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9066,7 +9062,7 @@
         <v>73</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>72</v>
@@ -9078,13 +9074,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9135,33 +9131,33 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9172,7 +9168,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -9184,13 +9180,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9241,33 +9237,33 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9278,7 +9274,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -9290,13 +9286,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9323,57 +9319,57 @@
         <v>72</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9393,22 +9389,22 @@
         <v>72</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>72</v>
@@ -9433,14 +9429,14 @@
         <v>72</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>72</v>
       </c>
@@ -9457,7 +9453,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9469,7 +9465,7 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
@@ -9478,12 +9474,12 @@
         <v>72</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9506,13 +9502,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9563,7 +9559,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9575,16 +9571,16 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,7 +614,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://nhn.no/fhir/nilar/ValueSet/id-provider-vs</t>
+    <t>http://nhn.no/fhir/nilar/ValueSet/identifier-source-vs</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1330,7 +1330,7 @@
     <t>Additive associated with container</t>
   </si>
   <si>
-    <t>Material added to the specimen for preservation purposes.</t>
+    <t>Material added to the specimen for preservation purposes. Pure text, no codesystem binding.</t>
   </si>
   <si>
     <t>Substance added to specimen container.</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Sample for analysis</t>
@@ -1897,13 +1901,13 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1969,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1980,10 +1984,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1994,7 +1998,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -2003,19 +2007,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2065,13 +2069,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -2091,10 +2095,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2105,7 +2109,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -2114,16 +2118,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2174,19 +2178,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -2200,10 +2204,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2214,28 +2218,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2285,19 +2289,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2311,10 +2315,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2325,7 +2329,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2337,16 +2341,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2372,13 +2376,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2396,19 +2400,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2422,21 +2426,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2448,16 +2452,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2507,22 +2511,22 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -2533,14 +2537,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2559,16 +2563,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2618,7 +2622,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2633,7 +2637,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2644,10 +2648,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2670,13 +2674,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2715,17 +2719,17 @@
         <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2737,7 +2741,7 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2751,13 +2755,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>73</v>
@@ -2767,7 +2771,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -2779,13 +2783,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2836,7 +2840,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2845,10 +2849,10 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2862,13 +2866,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
@@ -2890,13 +2894,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2947,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2956,10 +2960,10 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>73</v>
@@ -2973,14 +2977,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2993,25 +2997,25 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -3060,7 +3064,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3072,10 +3076,10 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3086,10 +3090,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3109,16 +3113,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3169,7 +3173,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -3184,21 +3188,21 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3209,7 +3213,7 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -3221,13 +3225,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3278,13 +3282,13 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -3293,7 +3297,7 @@
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3304,14 +3308,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3330,16 +3334,16 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3377,19 +3381,19 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3401,10 +3405,10 @@
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3415,10 +3419,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3429,31 +3433,31 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3478,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -3502,36 +3506,36 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3542,7 +3546,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3551,22 +3555,22 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3591,13 +3595,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -3615,36 +3619,36 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,31 +3659,31 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -3692,7 +3696,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -3704,11 +3708,11 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -3726,36 +3730,36 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3766,28 +3770,28 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3801,7 +3805,7 @@
         <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>73</v>
@@ -3837,36 +3841,36 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3877,7 +3881,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3886,16 +3890,16 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3946,36 +3950,36 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3986,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3995,19 +3999,19 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4057,36 +4061,36 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4094,10 +4098,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -4106,16 +4110,16 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4166,36 +4170,36 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4206,28 +4210,28 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4253,13 +4257,13 @@
         <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>73</v>
@@ -4277,36 +4281,36 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4317,7 +4321,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -4326,19 +4330,19 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4364,11 +4368,11 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>73</v>
@@ -4386,36 +4390,36 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4426,29 +4430,29 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4497,25 +4501,25 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4523,10 +4527,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4537,7 +4541,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4549,13 +4553,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4606,13 +4610,13 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -4621,7 +4625,7 @@
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
@@ -4632,14 +4636,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4658,16 +4662,16 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4705,19 +4709,19 @@
         <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4729,10 +4733,10 @@
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>73</v>
@@ -4743,10 +4747,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4757,7 +4761,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4766,19 +4770,19 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4828,22 +4832,22 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -4854,10 +4858,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4868,7 +4872,7 @@
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4877,19 +4881,19 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4915,13 +4919,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4939,22 +4943,22 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
@@ -4965,10 +4969,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4979,28 +4983,28 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5050,22 +5054,22 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -5076,10 +5080,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5090,7 +5094,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -5102,13 +5106,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5159,13 +5163,13 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -5174,7 +5178,7 @@
         <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -5185,14 +5189,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5211,16 +5215,16 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5258,19 +5262,19 @@
         <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5282,10 +5286,10 @@
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -5296,10 +5300,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5310,31 +5314,31 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5359,13 +5363,13 @@
         <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>73</v>
@@ -5383,36 +5387,36 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5423,7 +5427,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5432,22 +5436,22 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5472,13 +5476,13 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>73</v>
@@ -5496,36 +5500,36 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5536,31 +5540,31 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5573,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>73</v>
@@ -5585,11 +5589,11 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
@@ -5607,36 +5611,36 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5647,28 +5651,28 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5682,7 +5686,7 @@
         <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>73</v>
@@ -5718,36 +5722,36 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5758,7 +5762,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5767,16 +5771,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5827,36 +5831,36 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5867,7 +5871,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -5876,19 +5880,19 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5938,36 +5942,36 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5978,28 +5982,28 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6049,22 +6053,22 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -6075,10 +6079,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6089,7 +6093,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6098,16 +6102,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6158,36 +6162,36 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6210,16 +6214,16 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6269,7 +6273,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6281,10 +6285,10 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -6295,10 +6299,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6321,16 +6325,16 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6380,7 +6384,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6392,24 +6396,24 @@
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6417,10 +6421,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6432,13 +6436,13 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6489,36 +6493,36 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6529,7 +6533,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6541,13 +6545,13 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6598,13 +6602,13 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
@@ -6613,7 +6617,7 @@
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6624,14 +6628,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6650,16 +6654,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6709,7 +6713,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6721,10 +6725,10 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6735,14 +6739,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6755,25 +6759,25 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6822,7 +6826,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6834,10 +6838,10 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6848,10 +6852,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6862,7 +6866,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6871,16 +6875,16 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6931,36 +6935,36 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6968,10 +6972,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -6980,16 +6984,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7040,36 +7044,36 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7080,7 +7084,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -7089,16 +7093,16 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7149,25 +7153,25 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7175,10 +7179,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7189,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7201,13 +7205,13 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7258,36 +7262,36 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7298,7 +7302,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -7310,13 +7314,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7343,13 +7347,13 @@
         <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>73</v>
@@ -7367,36 +7371,36 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7407,7 +7411,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -7419,16 +7423,16 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7454,13 +7458,13 @@
         <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>73</v>
@@ -7478,36 +7482,36 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7518,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7527,22 +7531,22 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7567,13 +7571,13 @@
         <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>73</v>
@@ -7591,19 +7595,19 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7612,15 +7616,15 @@
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7643,13 +7647,13 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7700,7 +7704,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7712,10 +7716,10 @@
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -7726,10 +7730,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7740,7 +7744,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>73</v>
@@ -7752,13 +7756,13 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7809,13 +7813,13 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>73</v>
@@ -7824,7 +7828,7 @@
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7835,14 +7839,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7861,16 +7865,16 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7920,7 +7924,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7932,10 +7936,10 @@
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7946,14 +7950,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7966,25 +7970,25 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
@@ -8033,7 +8037,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8045,10 +8049,10 @@
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -8059,10 +8063,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8073,7 +8077,7 @@
         <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>73</v>
@@ -8085,13 +8089,13 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8142,22 +8146,22 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -8168,10 +8172,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8182,7 +8186,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
@@ -8194,13 +8198,13 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8227,13 +8231,13 @@
         <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>73</v>
@@ -8251,22 +8255,22 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
@@ -8277,10 +8281,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8303,13 +8307,13 @@
         <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8360,7 +8364,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8372,24 +8376,24 @@
         <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8400,7 +8404,7 @@
         <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>73</v>
@@ -8412,13 +8416,13 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8469,22 +8473,22 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>73</v>
@@ -8495,10 +8499,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8509,7 +8513,7 @@
         <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>73</v>
@@ -8521,13 +8525,13 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8578,7 +8582,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8590,10 +8594,10 @@
         <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -8604,10 +8608,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8618,7 +8622,7 @@
         <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>73</v>
@@ -8630,13 +8634,13 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8687,13 +8691,13 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>73</v>
@@ -8702,7 +8706,7 @@
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -8713,14 +8717,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8739,16 +8743,16 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8798,7 +8802,7 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8810,10 +8814,10 @@
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
@@ -8824,14 +8828,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8844,25 +8848,25 @@
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>73</v>
@@ -8911,7 +8915,7 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8923,10 +8927,10 @@
         <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
@@ -8937,10 +8941,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8960,16 +8964,16 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9020,7 +9024,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -9032,24 +9036,24 @@
         <v>73</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9060,7 +9064,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -9072,13 +9076,13 @@
         <v>73</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9129,22 +9133,22 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>73</v>
@@ -9155,10 +9159,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9169,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>73</v>
@@ -9181,13 +9185,13 @@
         <v>73</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9214,13 +9218,13 @@
         <v>73</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>73</v>
@@ -9238,36 +9242,36 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9278,7 +9282,7 @@
         <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>73</v>
@@ -9290,13 +9294,13 @@
         <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9347,36 +9351,36 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9387,7 +9391,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>73</v>
@@ -9399,13 +9403,13 @@
         <v>73</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9456,36 +9460,36 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9496,7 +9500,7 @@
         <v>74</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>73</v>
@@ -9508,13 +9512,13 @@
         <v>73</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9541,13 +9545,13 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9565,36 +9569,36 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9614,22 +9618,22 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>73</v>
@@ -9654,13 +9658,13 @@
         <v>73</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>73</v>
@@ -9678,7 +9682,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9690,7 +9694,7 @@
         <v>73</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>73</v>
@@ -9699,15 +9703,15 @@
         <v>73</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9730,13 +9734,13 @@
         <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>47</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9787,7 +9791,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9799,16 +9803,16 @@
         <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -464,6 +464,54 @@
   </si>
   <si>
     <t>Other info collected from xml for which there is no corresponding element or extension in Fhir.</t>
+  </si>
+  <si>
+    <t>Specimen.extension:pretreatment</t>
+  </si>
+  <si>
+    <t>pretreatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-pretreatment}
+</t>
+  </si>
+  <si>
+    <t>Pretreatment</t>
+  </si>
+  <si>
+    <t>Specifies pretreatment of patient from which specimen is sampled.</t>
+  </si>
+  <si>
+    <t>Specimen.extension:containercount</t>
+  </si>
+  <si>
+    <t>containercount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-container-count}
+</t>
+  </si>
+  <si>
+    <t>Container Count</t>
+  </si>
+  <si>
+    <t>Number of containers or other devices related to a specimen sample.</t>
+  </si>
+  <si>
+    <t>Specimen.extension:samplehandling</t>
+  </si>
+  <si>
+    <t>samplehandling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-sample-handling}
+</t>
+  </si>
+  <si>
+    <t>Sample Handling</t>
+  </si>
+  <si>
+    <t>Precausions or warnings regarding handling of the specimen sample.</t>
   </si>
   <si>
     <t>Specimen.modifierExtension</t>
@@ -997,6 +1045,134 @@
   </si>
   <si>
     <t>Specimen.collection.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:logistics</t>
+  </si>
+  <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-logistics}
+</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>How the sample is being sent.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-comment}
+</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>This extension is intended to add an element similar to 'Note' in resources that do not have Note.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment.url</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/StructureDefinition/nilar-comment</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment.value[x]</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:comment.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/ValueSet/collector-comment-vs</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:studyproducttype</t>
+  </si>
+  <si>
+    <t>studyproducttype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-study-product-type}
+</t>
+  </si>
+  <si>
+    <t>Study Product Type</t>
+  </si>
+  <si>
+    <t>Type of studied product.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:studyproductref</t>
+  </si>
+  <si>
+    <t>studyproductref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-study-product-ref}
+</t>
+  </si>
+  <si>
+    <t>Study Product Ref</t>
+  </si>
+  <si>
+    <t>Reference to product being studied.</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -1705,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1714,9 +1890,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="68.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1724,7 +1900,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2980,43 +3156,41 @@
         <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>73</v>
       </c>
@@ -3064,7 +3238,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3073,13 +3247,13 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3090,12 +3264,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>73</v>
       </c>
@@ -3104,7 +3280,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3113,16 +3289,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3173,7 +3349,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -3182,29 +3358,31 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3213,7 +3391,7 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -3225,13 +3403,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3282,22 +3460,22 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3308,14 +3486,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3328,7 +3506,7 @@
         <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>73</v>
@@ -3337,15 +3515,17 @@
         <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
       </c>
@@ -3381,19 +3561,19 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3408,7 +3588,7 @@
         <v>132</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3419,10 +3599,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3433,32 +3613,28 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3482,13 +3658,13 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -3506,36 +3682,36 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3555,23 +3731,19 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3595,13 +3767,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -3619,7 +3791,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3631,7 +3803,7 @@
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>178</v>
@@ -3640,51 +3812,49 @@
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>73</v>
       </c>
@@ -3696,7 +3866,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -3708,58 +3878,60 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3773,27 +3945,29 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3805,7 +3979,7 @@
         <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>73</v>
@@ -3817,13 +3991,13 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>73</v>
@@ -3841,7 +4015,7 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3856,21 +4030,21 @@
         <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3893,16 +4067,20 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3926,13 +4104,13 @@
         <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3950,7 +4128,7 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -3965,21 +4143,21 @@
         <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3993,7 +4171,7 @@
         <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>73</v>
@@ -4002,18 +4180,20 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
@@ -4025,7 +4205,7 @@
         <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>73</v>
@@ -4037,13 +4217,11 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -4061,7 +4239,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4076,21 +4254,21 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4098,13 +4276,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>73</v>
@@ -4113,15 +4291,17 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>73</v>
@@ -4134,7 +4314,7 @@
         <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>73</v>
@@ -4170,7 +4350,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4185,21 +4365,21 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4216,23 +4396,21 @@
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>73</v>
@@ -4257,13 +4435,13 @@
         <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>73</v>
@@ -4281,7 +4459,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4296,21 +4474,21 @@
         <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4333,16 +4511,16 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4368,11 +4546,13 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>73</v>
@@ -4390,7 +4570,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4405,21 +4585,21 @@
         <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4427,13 +4607,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -4442,18 +4622,16 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4501,7 +4679,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4516,21 +4694,21 @@
         <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4547,21 +4725,23 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4586,13 +4766,13 @@
         <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>73</v>
@@ -4610,7 +4790,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4622,35 +4802,35 @@
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4659,19 +4839,19 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4697,60 +4877,58 @@
         <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4764,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -4773,18 +4951,18 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4832,7 +5010,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4841,16 +5019,16 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>73</v>
@@ -4858,10 +5036,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4881,20 +5059,18 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4919,13 +5095,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4943,7 +5119,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4955,10 +5131,10 @@
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
@@ -4969,42 +5145,42 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5042,34 +5218,34 @@
         <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -5080,10 +5256,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5103,18 +5279,20 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -5163,7 +5341,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5172,13 +5350,13 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -5189,21 +5367,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -5212,19 +5390,19 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5250,46 +5428,46 @@
         <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -5300,10 +5478,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5317,29 +5495,27 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5363,13 +5539,13 @@
         <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>73</v>
@@ -5387,7 +5563,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5402,21 +5578,21 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5436,23 +5612,19 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5476,13 +5648,13 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>73</v>
@@ -5500,7 +5672,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5512,7 +5684,7 @@
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>178</v>
@@ -5521,51 +5693,49 @@
         <v>73</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5577,7 +5747,7 @@
         <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>73</v>
@@ -5589,58 +5759,60 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>199</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5654,27 +5826,29 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5686,7 +5860,7 @@
         <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>73</v>
@@ -5698,13 +5872,13 @@
         <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>73</v>
@@ -5722,7 +5896,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5737,21 +5911,21 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>207</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5774,16 +5948,20 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5807,13 +5985,13 @@
         <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>73</v>
@@ -5831,7 +6009,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5846,21 +6024,21 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5874,7 +6052,7 @@
         <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5883,18 +6061,20 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5906,7 +6086,7 @@
         <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>73</v>
@@ -5918,13 +6098,11 @@
         <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>73</v>
@@ -5942,7 +6120,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5957,21 +6135,21 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5994,16 +6172,16 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6017,7 +6195,7 @@
         <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>73</v>
@@ -6053,7 +6231,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -6068,21 +6246,21 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6105,13 +6283,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6162,7 +6340,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6177,21 +6355,21 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>293</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6202,7 +6380,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6211,19 +6389,19 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6273,13 +6451,13 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
@@ -6288,21 +6466,21 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6313,28 +6491,28 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6384,13 +6562,13 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
@@ -6399,21 +6577,21 @@
         <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6421,7 +6599,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -6433,16 +6611,16 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6493,7 +6671,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6508,21 +6686,21 @@
         <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6533,7 +6711,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6545,15 +6723,17 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6602,22 +6782,22 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6635,7 +6815,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6654,16 +6834,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6713,7 +6893,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6725,60 +6905,56 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>163</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6826,36 +7002,36 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6875,16 +7051,16 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6935,7 +7111,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6947,24 +7123,24 @@
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>178</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>327</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6972,10 +7148,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -6984,16 +7160,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7032,50 +7208,50 @@
         <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>73</v>
       </c>
@@ -7093,16 +7269,16 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7153,25 +7329,25 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7179,12 +7355,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7193,7 +7371,7 @@
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7205,13 +7383,13 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7262,36 +7440,36 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>183</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7314,13 +7492,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7347,13 +7525,13 @@
         <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>73</v>
@@ -7371,7 +7549,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7383,24 +7561,24 @@
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>350</v>
+        <v>178</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7411,7 +7589,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -7423,17 +7601,15 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7458,60 +7634,60 @@
         <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7519,7 +7695,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -7531,29 +7707,27 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>361</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>350</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>73</v>
@@ -7571,13 +7745,13 @@
         <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>367</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>73</v>
@@ -7595,10 +7769,10 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
@@ -7607,24 +7781,24 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7635,7 +7809,7 @@
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -7647,13 +7821,13 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7692,25 +7866,23 @@
         <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
@@ -7719,7 +7891,7 @@
         <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -7730,12 +7902,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7756,13 +7930,13 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7789,13 +7963,11 @@
         <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>73</v>
@@ -7813,7 +7985,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7825,10 +7997,10 @@
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7839,21 +8011,23 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7865,17 +8039,15 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>126</v>
+        <v>364</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -7924,7 +8096,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7933,13 +8105,13 @@
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7950,46 +8122,44 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>73</v>
       </c>
@@ -8037,7 +8207,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8046,13 +8216,13 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -8063,42 +8233,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>73</v>
       </c>
@@ -8152,16 +8326,16 @@
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -8172,10 +8346,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8195,16 +8369,16 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8231,13 +8405,13 @@
         <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>73</v>
@@ -8255,7 +8429,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8270,21 +8444,21 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8292,10 +8466,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>73</v>
@@ -8304,16 +8478,16 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8364,13 +8538,13 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>73</v>
@@ -8379,21 +8553,21 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8413,16 +8587,16 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8473,7 +8647,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8488,10 +8662,10 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>73</v>
@@ -8499,10 +8673,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8525,7 +8699,7 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>396</v>
@@ -8582,13 +8756,13 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>73</v>
@@ -8603,15 +8777,15 @@
         <v>73</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>73</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8634,13 +8808,13 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8667,13 +8841,13 @@
         <v>73</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>73</v>
@@ -8691,7 +8865,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8703,35 +8877,35 @@
         <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>163</v>
+        <v>406</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>73</v>
@@ -8743,16 +8917,16 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>148</v>
+        <v>411</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8778,13 +8952,13 @@
         <v>73</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>73</v>
+        <v>413</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>73</v>
@@ -8802,71 +8976,71 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>163</v>
+        <v>414</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>126</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>148</v>
+        <v>420</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>149</v>
+        <v>421</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>73</v>
@@ -8891,13 +9065,13 @@
         <v>73</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>422</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>73</v>
+        <v>423</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>73</v>
@@ -8915,36 +9089,36 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>73</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8964,16 +9138,16 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9024,7 +9198,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -9039,21 +9213,21 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9076,13 +9250,13 @@
         <v>73</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>407</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>408</v>
+        <v>176</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9133,7 +9307,7 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>406</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -9145,10 +9319,10 @@
         <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>409</v>
+        <v>178</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>73</v>
@@ -9159,21 +9333,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>73</v>
@@ -9185,15 +9359,17 @@
         <v>73</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>73</v>
@@ -9218,13 +9394,13 @@
         <v>73</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>413</v>
+        <v>73</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>73</v>
@@ -9242,68 +9418,72 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>410</v>
+        <v>183</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9351,36 +9531,36 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>420</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9403,13 +9583,13 @@
         <v>73</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9460,7 +9640,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9475,21 +9655,21 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>425</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9512,13 +9692,13 @@
         <v>73</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9545,13 +9725,13 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9569,7 +9749,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9584,21 +9764,21 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>431</v>
+        <v>257</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9618,23 +9798,19 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>73</v>
       </c>
@@ -9658,13 +9834,13 @@
         <v>73</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>438</v>
+        <v>73</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>73</v>
@@ -9682,7 +9858,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9697,21 +9873,21 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9722,7 +9898,7 @@
         <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>73</v>
@@ -9734,13 +9910,13 @@
         <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>47</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9791,13 +9967,13 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>73</v>
@@ -9806,17 +9982,1335 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>445</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM73">
+  <autoFilter ref="A1:AM85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9826,7 +11320,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -639,7 +639,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -727,7 +727,7 @@
     <t>Specimen.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -972,7 +972,7 @@
     <t>Specimen.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -991,7 +991,7 @@
     <t>Specimen.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
     <t>Specimen.collection.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1271,7 +1271,7 @@
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method|4.0.1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1295,7 +1295,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1377,13 +1377,13 @@
     <t>Type indicating the technique used to process the specimen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-processing-procedure|4.0.1</t>
   </si>
   <si>
     <t>Specimen.processing.additive</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Substance)
+    <t xml:space="preserve">Reference(Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -1469,7 +1469,7 @@
     <t>Type of specimen container.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+    <t>http://hl7.org/fhir/ValueSet/specimen-container-type|4.0.1</t>
   </si>
   <si>
     <t>SPM-27</t>
@@ -1890,17 +1890,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1909,25 +1909,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
